--- a/dokumentasi/example.xlsx
+++ b/dokumentasi/example.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\KP\Software-SPMI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\KP\Software-SPMI\dokumentasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1BC4A0-B34B-41A8-BC16-B73C8B3D8B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEF3985-5200-4F7A-A095-FE31C0F39EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1FCCA566-237F-4610-B2CE-383DE46F6AD8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Informatika" sheetId="1" r:id="rId1"/>
-    <sheet name="Elektro" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
